--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -476,29 +476,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.806107564738904</v>
+        <v>-0.1444147435345003</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.771819440286651</v>
+        <v>-0.8061405040316523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01754856109619141</v>
+        <v>0.222550630569458</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1032290458679199</v>
+        <v>0.07119035720825195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4285867214202881</v>
+        <v>0.1267223358154297</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7864322662353516</v>
+        <v>0.1876773834228516</v>
       </c>
     </row>
     <row r="3">
@@ -509,29 +509,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.892503812200637</v>
+        <v>0.9640401497285137</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.234279169595803</v>
+        <v>-0.8601477282112242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04862284660339355</v>
+        <v>0.1500375270843506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6096811294555664</v>
+        <v>0.232292652130127</v>
       </c>
       <c r="H3" t="n">
-        <v>1.471445083618164</v>
+        <v>0.3792436122894287</v>
       </c>
       <c r="I3" t="n">
-        <v>2.602929353713989</v>
+        <v>0.5872654914855957</v>
       </c>
     </row>
     <row r="4">
@@ -542,29 +542,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCACH</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.159844623407785</v>
+        <v>1.033079608723682</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5724479974040662</v>
+        <v>-0.4937993849743579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2550802230834961</v>
+        <v>0.3491766452789307</v>
       </c>
       <c r="G4" t="n">
-        <v>1.314631938934326</v>
+        <v>0.5643045902252197</v>
       </c>
       <c r="H4" t="n">
-        <v>2.881968975067139</v>
+        <v>0.9545426368713379</v>
       </c>
       <c r="I4" t="n">
-        <v>5.082525730133057</v>
+        <v>1.500777959823608</v>
       </c>
     </row>
     <row r="5">
@@ -575,29 +575,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4731295194189361</v>
+        <v>2.680717735615369</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.169870025982753</v>
+        <v>-1.681216491003007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08307814598083496</v>
+        <v>0.0227811336517334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06392383575439453</v>
+        <v>0.1078639030456543</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1065099239349365</v>
+        <v>0.431196928024292</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1663408279418945</v>
+        <v>0.8911764621734619</v>
       </c>
     </row>
     <row r="6">
@@ -608,29 +608,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9135725731643108</v>
+        <v>2.932239311925516</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8578853950704869</v>
+        <v>-1.252382345053063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.151113748550415</v>
+        <v>0.04623317718505859</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2250256538391113</v>
+        <v>0.6090846061706543</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3590457439422607</v>
+        <v>1.489561319351196</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5529625415802002</v>
+        <v>2.599504470825195</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.004057139988559</v>
+        <v>2.149861125169074</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5014279939345384</v>
+        <v>-0.5657676704235868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3430981636047363</v>
+        <v>0.2593009471893311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5431697368621826</v>
+        <v>1.327651739120483</v>
       </c>
       <c r="H7" t="n">
-        <v>0.909543514251709</v>
+        <v>2.870744228363037</v>
       </c>
       <c r="I7" t="n">
-        <v>1.41553807258606</v>
+        <v>5.120460510253906</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -483,22 +483,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1444147435345003</v>
+        <v>-0.1566179116921771</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8061405040316523</v>
+        <v>-0.8172043806584095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.222550630569458</v>
+        <v>0.2226929664611816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07119035720825195</v>
+        <v>0.06534671783447266</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1267223358154297</v>
+        <v>0.1217389106750488</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1876773834228516</v>
+        <v>0.1847808361053467</v>
       </c>
     </row>
     <row r="3">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9640401497285137</v>
+        <v>0.8490515383832188</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8601477282112242</v>
+        <v>-0.8016750981597263</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1500375270843506</v>
+        <v>0.1754775047302246</v>
       </c>
       <c r="G3" t="n">
-        <v>0.232292652130127</v>
+        <v>0.2355296611785889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3792436122894287</v>
+        <v>0.3797647953033447</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5872654914855957</v>
+        <v>0.5880148410797119</v>
       </c>
     </row>
     <row r="4">
@@ -549,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.033079608723682</v>
+        <v>1.020375390426931</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4937993849743579</v>
+        <v>-0.4865528666331486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3491766452789307</v>
+        <v>0.354825496673584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5643045902252197</v>
+        <v>0.5693221092224121</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9545426368713379</v>
+        <v>0.9578492641448975</v>
       </c>
       <c r="I4" t="n">
-        <v>1.500777959823608</v>
+        <v>1.497793912887573</v>
       </c>
     </row>
     <row r="5">
@@ -582,22 +582,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.680717735615369</v>
+        <v>2.704739760508689</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.681216491003007</v>
+        <v>-1.694451724157108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0227811336517334</v>
+        <v>0.0222923755645752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1078639030456543</v>
+        <v>0.1050310134887695</v>
       </c>
       <c r="H5" t="n">
-        <v>0.431196928024292</v>
+        <v>0.4245173931121826</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8911764621734619</v>
+        <v>0.907686710357666</v>
       </c>
     </row>
     <row r="6">
@@ -615,22 +615,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.932239311925516</v>
+        <v>2.963332632554861</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.252382345053063</v>
+        <v>-1.275347736897369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04623317718505859</v>
+        <v>0.04336667060852051</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6090846061706543</v>
+        <v>0.6079716682434082</v>
       </c>
       <c r="H6" t="n">
-        <v>1.489561319351196</v>
+        <v>1.436635255813599</v>
       </c>
       <c r="I6" t="n">
-        <v>2.599504470825195</v>
+        <v>2.571864366531372</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.149861125169074</v>
+        <v>2.220643272056291</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5657676704235868</v>
+        <v>-0.6051165185451557</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2593009471893311</v>
+        <v>0.2344467639923096</v>
       </c>
       <c r="G7" t="n">
-        <v>1.327651739120483</v>
+        <v>1.281024932861328</v>
       </c>
       <c r="H7" t="n">
-        <v>2.870744228363037</v>
+        <v>2.935042381286621</v>
       </c>
       <c r="I7" t="n">
-        <v>5.120460510253906</v>
+        <v>5.003507137298584</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -483,22 +483,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1566179116921771</v>
+        <v>-0.1096171636876929</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8172043806584095</v>
+        <v>-0.8241393381757346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2226929664611816</v>
+        <v>0.2121469974517822</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06534671783447266</v>
+        <v>0.07085061073303223</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1217389106750488</v>
+        <v>0.1264138221740723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1847808361053467</v>
+        <v>0.1876604557037354</v>
       </c>
     </row>
     <row r="3">
@@ -516,22 +516,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8490515383832188</v>
+        <v>0.9644933654736395</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8016750981597263</v>
+        <v>-0.8569479900973451</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1754775047302246</v>
+        <v>0.1514596939086914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2355296611785889</v>
+        <v>0.2325973510742188</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3797647953033447</v>
+        <v>0.3843052387237549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5880148410797119</v>
+        <v>0.5913362503051758</v>
       </c>
     </row>
     <row r="4">
@@ -549,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.020375390426931</v>
+        <v>1.022730943277161</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4865528666331486</v>
+        <v>-0.4872400637240936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.354825496673584</v>
+        <v>0.3549869060516357</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5693221092224121</v>
+        <v>0.5670406818389893</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9578492641448975</v>
+        <v>0.9587934017181396</v>
       </c>
       <c r="I4" t="n">
-        <v>1.497793912887573</v>
+        <v>1.503394365310669</v>
       </c>
     </row>
     <row r="5">
@@ -582,22 +582,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.704739760508689</v>
+        <v>2.87245873570104</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.694451724157108</v>
+        <v>-1.778542915796532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0222923755645752</v>
+        <v>0.01752614974975586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1050310134887695</v>
+        <v>0.1050806045532227</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4245173931121826</v>
+        <v>0.4370896816253662</v>
       </c>
       <c r="I5" t="n">
-        <v>0.907686710357666</v>
+        <v>0.8803360462188721</v>
       </c>
     </row>
     <row r="6">
@@ -615,22 +615,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.963332632554861</v>
+        <v>2.965916398800028</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.275347736897369</v>
+        <v>-1.270341191935552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04336667060852051</v>
+        <v>0.0439293384552002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6079716682434082</v>
+        <v>0.6105859279632568</v>
       </c>
       <c r="H6" t="n">
-        <v>1.436635255813599</v>
+        <v>1.479722023010254</v>
       </c>
       <c r="I6" t="n">
-        <v>2.571864366531372</v>
+        <v>2.591461658477783</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220643272056291</v>
+        <v>2.158860447551775</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.6051165185451557</v>
+        <v>-0.5784743857119731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2344467639923096</v>
+        <v>0.2546920776367188</v>
       </c>
       <c r="G7" t="n">
-        <v>1.281024932861328</v>
+        <v>1.256182909011841</v>
       </c>
       <c r="H7" t="n">
-        <v>2.935042381286621</v>
+        <v>2.882007598876953</v>
       </c>
       <c r="I7" t="n">
-        <v>5.003507137298584</v>
+        <v>5.023685216903687</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -476,29 +476,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1096171636876929</v>
+        <v>-0.2279876775671041</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8241393381757346</v>
+        <v>-0.7771844722981862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2121469974517822</v>
+        <v>0.2521131038665771</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07085061073303223</v>
+        <v>0.06441164016723633</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1264138221740723</v>
+        <v>0.1214244365692139</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1876604557037354</v>
+        <v>0.1913044452667236</v>
       </c>
     </row>
     <row r="3">
@@ -509,29 +509,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9644933654736395</v>
+        <v>1.091984318913576</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8569479900973451</v>
+        <v>-0.9505365403107537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1514596939086914</v>
+        <v>0.1213221549987793</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2325973510742188</v>
+        <v>0.2072489261627197</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3843052387237549</v>
+        <v>0.3572523593902588</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5913362503051758</v>
+        <v>0.5644369125366211</v>
       </c>
     </row>
     <row r="4">
@@ -542,29 +542,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOCACH</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.022730943277161</v>
+        <v>1.145378188982578</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4872400637240936</v>
+        <v>-0.5738650747621424</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3549869060516357</v>
+        <v>0.2886278629302979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5670406818389893</v>
+        <v>0.5119805335998535</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9587934017181396</v>
+        <v>0.9044802188873291</v>
       </c>
       <c r="I4" t="n">
-        <v>1.503394365310669</v>
+        <v>1.44348669052124</v>
       </c>
     </row>
     <row r="5">
@@ -582,22 +582,22 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.87245873570104</v>
+        <v>2.64747550472085</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.778542915796532</v>
+        <v>-1.69153760438007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01752614974975586</v>
+        <v>0.02199006080627441</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1050806045532227</v>
+        <v>0.1024446487426758</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4370896816253662</v>
+        <v>0.4341928958892822</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8803360462188721</v>
+        <v>0.7898173332214355</v>
       </c>
     </row>
     <row r="6">
@@ -615,22 +615,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.965916398800028</v>
+        <v>2.895197258683322</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.270341191935552</v>
+        <v>-1.236305872384705</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0439293384552002</v>
+        <v>0.04823565483093262</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6105859279632568</v>
+        <v>0.6104898452758789</v>
       </c>
       <c r="H6" t="n">
-        <v>1.479722023010254</v>
+        <v>1.477921724319458</v>
       </c>
       <c r="I6" t="n">
-        <v>2.591461658477783</v>
+        <v>2.582630157470703</v>
       </c>
     </row>
     <row r="7">
@@ -648,22 +648,22 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.158860447551775</v>
+        <v>2.158525324529273</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5784743857119731</v>
+        <v>-0.5692698599441928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2546920776367188</v>
+        <v>0.2590479850769043</v>
       </c>
       <c r="G7" t="n">
-        <v>1.256182909011841</v>
+        <v>1.293863296508789</v>
       </c>
       <c r="H7" t="n">
-        <v>2.882007598876953</v>
+        <v>2.941803932189941</v>
       </c>
       <c r="I7" t="n">
-        <v>5.023685216903687</v>
+        <v>5.108096837997437</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2279876775671041</v>
+        <v>2.260743483333957</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7771844722981862</v>
+        <v>-0.7306366532652566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2521131038665771</v>
+        <v>0.1812326908111572</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06441164016723633</v>
+        <v>0.912097692489624</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1214244365692139</v>
+        <v>2.383590936660767</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1913044452667236</v>
+        <v>4.001726150512695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,28 +516,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.091984318913576</v>
+        <v>2.416797944936684</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9505365403107537</v>
+        <v>-0.2181612705479352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1213221549987793</v>
+        <v>0.5793783664703369</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2072489261627197</v>
+        <v>3.443787813186646</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3572523593902588</v>
+        <v>9.104180335998535</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5644369125366211</v>
+        <v>15.98847627639771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GPU</t>
+          <t>CPU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -549,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.145378188982578</v>
+        <v>2.519291675560043</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5738650747621424</v>
+        <v>0.1648344534777887</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2886278629302979</v>
+        <v>1.34881591796875</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5119805335998535</v>
+        <v>9.750821590423584</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9044802188873291</v>
+        <v>23.78663897514343</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44348669052124</v>
+        <v>43.76888489723206</v>
       </c>
     </row>
     <row r="5">
@@ -575,29 +575,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.64747550472085</v>
+        <v>-0.175411842897202</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.69153760438007</v>
+        <v>-0.8251488872087385</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02199006080627441</v>
+        <v>0.2207355499267578</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1024446487426758</v>
+        <v>0.0628664493560791</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4341928958892822</v>
+        <v>0.1138749122619629</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7898173332214355</v>
+        <v>0.1813759803771973</v>
       </c>
     </row>
     <row r="6">
@@ -608,29 +608,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.895197258683322</v>
+        <v>1.089706748393385</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.236305872384705</v>
+        <v>-0.9508839585658313</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04823565483093262</v>
+        <v>0.1213781833648682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6104898452758789</v>
+        <v>0.2059764862060547</v>
       </c>
       <c r="H6" t="n">
-        <v>1.477921724319458</v>
+        <v>0.3571541309356689</v>
       </c>
       <c r="I6" t="n">
-        <v>2.582630157470703</v>
+        <v>0.5619215965270996</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>2.158525324529273</v>
+        <v>1.185563260496372</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5692698599441928</v>
+        <v>-0.5873524053253198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2590479850769043</v>
+        <v>0.2820003032684326</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293863296508789</v>
+        <v>0.5064928531646729</v>
       </c>
       <c r="H7" t="n">
-        <v>2.941803932189941</v>
+        <v>0.8987390995025635</v>
       </c>
       <c r="I7" t="n">
-        <v>5.108096837997437</v>
+        <v>1.508209228515625</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,28 +483,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.260743483333957</v>
+        <v>0.9787123036474283</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7306366532652566</v>
+        <v>-1.406316027894877</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1812326908111572</v>
+        <v>0.04368901252746582</v>
       </c>
       <c r="G2" t="n">
-        <v>0.912097692489624</v>
+        <v>0.06361865997314453</v>
       </c>
       <c r="H2" t="n">
-        <v>2.383590936660767</v>
+        <v>0.109595775604248</v>
       </c>
       <c r="I2" t="n">
-        <v>4.001726150512695</v>
+        <v>0.1745078563690186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,28 +516,28 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>2.416797944936684</v>
+        <v>0.919435911407811</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2181612705479352</v>
+        <v>-0.8939146379314068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5793783664703369</v>
+        <v>0.1425130367279053</v>
       </c>
       <c r="G3" t="n">
-        <v>3.443787813186646</v>
+        <v>0.1974730491638184</v>
       </c>
       <c r="H3" t="n">
-        <v>9.104180335998535</v>
+        <v>0.3350048065185547</v>
       </c>
       <c r="I3" t="n">
-        <v>15.98847627639771</v>
+        <v>0.5235326290130615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CPU</t>
+          <t>GPU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -549,22 +549,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>2.519291675560043</v>
+        <v>1.175302478453911</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1648344534777887</v>
+        <v>-0.5793709587814392</v>
       </c>
       <c r="F4" t="n">
-        <v>1.34881591796875</v>
+        <v>0.2844879627227783</v>
       </c>
       <c r="G4" t="n">
-        <v>9.750821590423584</v>
+        <v>0.5133485794067383</v>
       </c>
       <c r="H4" t="n">
-        <v>23.78663897514343</v>
+        <v>0.9430177211761475</v>
       </c>
       <c r="I4" t="n">
-        <v>43.76888489723206</v>
+        <v>1.464487791061401</v>
       </c>
     </row>
     <row r="5">
@@ -575,29 +575,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.175411842897202</v>
+        <v>2.903609579979637</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8251488872087385</v>
+        <v>-1.490977616583348</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2207355499267578</v>
+        <v>0.0332343578338623</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0628664493560791</v>
+        <v>0.215153694152832</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1138749122619629</v>
+        <v>0.9018940925598145</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1813759803771973</v>
+        <v>1.714717149734497</v>
       </c>
     </row>
     <row r="6">
@@ -608,29 +608,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.089706748393385</v>
+        <v>2.897713683513997</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9508839585658313</v>
+        <v>-0.9537396411246455</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1213781833648682</v>
+        <v>0.09450173377990723</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2059764862060547</v>
+        <v>1.122559070587158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3571541309356689</v>
+        <v>2.837224960327148</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5619215965270996</v>
+        <v>5.081075668334961</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.185563260496372</v>
+        <v>2.213343510695879</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5873524053253198</v>
+        <v>-0.2991909068469684</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2820003032684326</v>
+        <v>0.4770605564117432</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5064928531646729</v>
+        <v>2.565227031707764</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8987390995025635</v>
+        <v>5.790481090545654</v>
       </c>
       <c r="I7" t="n">
-        <v>1.508209228515625</v>
+        <v>10.17897534370422</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,29 +476,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9787123036474283</v>
+        <v>0.6147924825658563</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.406316027894877</v>
+        <v>-0.8466884942906096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04368901252746582</v>
+        <v>0.1820144653320312</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06361865997314453</v>
+        <v>0.131817102432251</v>
       </c>
       <c r="H2" t="n">
-        <v>0.109595775604248</v>
+        <v>0.2872500419616699</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1745078563690186</v>
+        <v>0.4201958179473877</v>
       </c>
     </row>
     <row r="3">
@@ -509,29 +509,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.919435911407811</v>
+        <v>0.8899949719388461</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8939146379314068</v>
+        <v>-0.9537165234009264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1425130367279053</v>
+        <v>0.1328704357147217</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1974730491638184</v>
+        <v>0.1432342529296875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3350048065185547</v>
+        <v>0.3021512031555176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5235326290130615</v>
+        <v>0.4506251811981201</v>
       </c>
     </row>
     <row r="4">
@@ -542,128 +542,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOCAC</t>
+          <t>CACHE</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.175302478453911</v>
+        <v>0.8872606439417344</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5793709587814392</v>
+        <v>-0.9370079649256693</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2844879627227783</v>
+        <v>0.1338074207305908</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5133485794067383</v>
+        <v>0.15663743019104</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9430177211761475</v>
+        <v>0.3207077980041504</v>
       </c>
       <c r="I4" t="n">
-        <v>1.464487791061401</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.903609579979637</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.490977616583348</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0332343578338623</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.215153694152832</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9018940925598145</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.714717149734497</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.897713683513997</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.9537396411246455</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.09450173377990723</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.122559070587158</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.837224960327148</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.081075668334961</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPU</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CACHE</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.213343510695879</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.2991909068469684</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.4770605564117432</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.565227031707764</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.790481090545654</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.17897534370422</v>
+        <v>0.4457485675811768</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_GPU_15P_4K.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,29 +476,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6147924825658563</v>
+        <v>0.6406371921839868</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8466884942906096</v>
+        <v>-0.8453307412429851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1820144653320312</v>
+        <v>0.1776401996612549</v>
       </c>
       <c r="G2" t="n">
-        <v>0.131817102432251</v>
+        <v>0.1452717781066895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2872500419616699</v>
+        <v>0.2816550731658936</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4201958179473877</v>
+        <v>0.4379773139953613</v>
       </c>
     </row>
     <row r="3">
@@ -509,29 +509,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8899949719388461</v>
+        <v>0.9726348916231389</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.9537165234009264</v>
+        <v>-0.7157537174747919</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1328704357147217</v>
+        <v>0.211169958114624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1432342529296875</v>
+        <v>0.306912899017334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3021512031555176</v>
+        <v>0.5896611213684082</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4506251811981201</v>
+        <v>0.7891817092895508</v>
       </c>
     </row>
     <row r="4">
@@ -542,29 +542,128 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CACHE</t>
+          <t>NOCAC</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8872606439417344</v>
+        <v>1.044580703906408</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9370079649256693</v>
+        <v>-0.4391385692791769</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1338074207305908</v>
+        <v>0.3974707126617432</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15663743019104</v>
+        <v>0.6382021903991699</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3207077980041504</v>
+        <v>1.105375051498413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4457485675811768</v>
+        <v>1.727486610412598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6780431639497231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.9411029257102691</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1255416870117188</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1590569019317627</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2178969383239746</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.341066837310791</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9872833020634779</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.086680896158174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09178853034973145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.129166841506958</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2428913116455078</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3602337837219238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CACHE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9048238028989455</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.030944837445227</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1073167324066162</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1311624050140381</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2521915435791016</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3757174015045166</v>
       </c>
     </row>
   </sheetData>
